--- a/W-Advance_Technical_Analysis_QSE_STRONG_BUY.xlsx
+++ b/W-Advance_Technical_Analysis_QSE_STRONG_BUY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Python_PSX_Stock_Scanner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhammadhafeez/Documents/GitHub/Python_PSX_Stock_Scanner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C98B1E0-C7E7-40A2-9F16-0BA6F549E2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB87EAB-E22B-F140-8885-EDEB9FA78C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Symbols" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="227">
   <si>
     <t>Date and Time</t>
   </si>
@@ -80,12 +80,213 @@
     <t>Technicals</t>
   </si>
   <si>
+    <t>ABQK</t>
+  </si>
+  <si>
+    <t>STRONG_BUY</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AABQK</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-ABQK/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-ABQK/technicals/</t>
+  </si>
+  <si>
+    <t>AHCS</t>
+  </si>
+  <si>
+    <t>SELL</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AAHCS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-AHCS/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-AHCS/technicals/</t>
+  </si>
+  <si>
+    <t>AKHI</t>
+  </si>
+  <si>
+    <t>STRONG_SELL</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AAKHI</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-AKHI/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-AKHI/technicals/</t>
+  </si>
+  <si>
+    <t>BLDN</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ABLDN</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-BLDN/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-BLDN/technicals/</t>
+  </si>
+  <si>
+    <t>BRES</t>
+  </si>
+  <si>
+    <t>BUY</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ABRES</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-BRES/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-BRES/technicals/</t>
+  </si>
+  <si>
+    <t>CBQK</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ACBQK</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-CBQK/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-CBQK/technicals/</t>
+  </si>
+  <si>
+    <t>DBIS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADBIS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-DBIS/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-DBIS/technicals/</t>
+  </si>
+  <si>
+    <t>DHBK</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADHBK</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-DHBK/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-DHBK/technicals/</t>
+  </si>
+  <si>
+    <t>DUBK</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADUBK</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-DUBK/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-DUBK/technicals/</t>
+  </si>
+  <si>
+    <t>ERES</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AERES</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-ERES/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-ERES/technicals/</t>
+  </si>
+  <si>
+    <t>FALH</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AFALH</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-FALH/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-FALH/technicals/</t>
+  </si>
+  <si>
+    <t>GISS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGISS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-GISS/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-GISS/technicals/</t>
+  </si>
+  <si>
+    <t>GNRI</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGNRI</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-GNRI/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-GNRI/technicals/</t>
+  </si>
+  <si>
+    <t>GWCS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGWCS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-GWCS/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-GWCS/technicals/</t>
+  </si>
+  <si>
+    <t>IGRD</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AIGRD</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-IGRD/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-IGRD/technicals/</t>
+  </si>
+  <si>
+    <t>IHGS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AIHGS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-IHGS/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-IHGS/technicals/</t>
+  </si>
+  <si>
     <t>IQCD</t>
   </si>
   <si>
-    <t>BUY</t>
-  </si>
-  <si>
     <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AIQCD</t>
   </si>
   <si>
@@ -95,6 +296,249 @@
     <t>https://www.tradingview.com/symbols/QSE-IQCD/technicals/</t>
   </si>
   <si>
+    <t>MARK</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMARK</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-MARK/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-MARK/technicals/</t>
+  </si>
+  <si>
+    <t>MCCS</t>
+  </si>
+  <si>
+    <t>NEUTRAL</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMCCS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-MCCS/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-MCCS/technicals/</t>
+  </si>
+  <si>
+    <t>MCGS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMCGS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-MCGS/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-MCGS/technicals/</t>
+  </si>
+  <si>
+    <t>MERS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMERS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-MERS/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-MERS/technicals/</t>
+  </si>
+  <si>
+    <t>MEZA</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMEZA</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-MEZA/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-MEZA/technicals/</t>
+  </si>
+  <si>
+    <t>MHAR</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMHAR</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-MHAR/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-MHAR/technicals/</t>
+  </si>
+  <si>
+    <t>MKDM</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMKDM</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-MKDM/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-MKDM/technicals/</t>
+  </si>
+  <si>
+    <t>MPHC</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMPHC</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-MPHC/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-MPHC/technicals/</t>
+  </si>
+  <si>
+    <t>MRDS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMRDS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-MRDS/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-MRDS/technicals/</t>
+  </si>
+  <si>
+    <t>NLCS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ANLCS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-NLCS/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-NLCS/technicals/</t>
+  </si>
+  <si>
+    <t>ORDS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AORDS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-ORDS/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-ORDS/technicals/</t>
+  </si>
+  <si>
+    <t>QAMC</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQAMC</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QAMC/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QAMC/technicals/</t>
+  </si>
+  <si>
+    <t>QATI</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQATI</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QATI/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QATI/technicals/</t>
+  </si>
+  <si>
+    <t>QCFS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQCFS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QCFS/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QCFS/technicals/</t>
+  </si>
+  <si>
+    <t>QEWS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQEWS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QEWS/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QEWS/technicals/</t>
+  </si>
+  <si>
+    <t>QFBQ</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQFBQ</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QFBQ/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QFBQ/technicals/</t>
+  </si>
+  <si>
+    <t>QFLS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQFLS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QFLS/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QFLS/technicals/</t>
+  </si>
+  <si>
+    <t>QGMD</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGMD</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QGMD/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QGMD/technicals/</t>
+  </si>
+  <si>
+    <t>QGRI</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGRI</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QGRI/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QGRI/technicals/</t>
+  </si>
+  <si>
+    <t>QGTS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGTS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QGTS/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QGTS/technicals/</t>
+  </si>
+  <si>
     <t>QIBK</t>
   </si>
   <si>
@@ -107,121 +551,16 @@
     <t>https://www.tradingview.com/symbols/QSE-QIBK/technicals/</t>
   </si>
   <si>
-    <t>ORDS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AORDS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-ORDS/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-ORDS/technicals/</t>
-  </si>
-  <si>
-    <t>ERES</t>
-  </si>
-  <si>
-    <t>SELL</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AERES</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-ERES/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-ERES/technicals/</t>
-  </si>
-  <si>
-    <t>MARK</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMARK</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-MARK/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-MARK/technicals/</t>
-  </si>
-  <si>
-    <t>CBQK</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ACBQK</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-CBQK/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-CBQK/technicals/</t>
-  </si>
-  <si>
-    <t>DUBK</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADUBK</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-DUBK/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-DUBK/technicals/</t>
-  </si>
-  <si>
-    <t>MPHC</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMPHC</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-MPHC/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-MPHC/technicals/</t>
-  </si>
-  <si>
-    <t>QEWS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQEWS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QEWS/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QEWS/technicals/</t>
-  </si>
-  <si>
-    <t>QGTS</t>
-  </si>
-  <si>
-    <t>STRONG_BUY</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGTS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QGTS/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QGTS/technicals/</t>
-  </si>
-  <si>
-    <t>QFLS</t>
-  </si>
-  <si>
-    <t>STRONG_SELL</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQFLS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QFLS/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QFLS/technicals/</t>
+    <t>QIGD</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIGD</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QIGD/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QIGD/technicals/</t>
   </si>
   <si>
     <t>QIIK</t>
@@ -236,6 +575,54 @@
     <t>https://www.tradingview.com/symbols/QSE-QIIK/technicals/</t>
   </si>
   <si>
+    <t>QIMD</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIMD</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QIMD/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QIMD/technicals/</t>
+  </si>
+  <si>
+    <t>QISI</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQISI</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QISI/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QISI/technicals/</t>
+  </si>
+  <si>
+    <t>QLMI</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQLMI</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QLMI/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QLMI/technicals/</t>
+  </si>
+  <si>
+    <t>QNCD</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQNCD</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QNCD/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QNCD/technicals/</t>
+  </si>
+  <si>
     <t>QNNS</t>
   </si>
   <si>
@@ -248,40 +635,40 @@
     <t>https://www.tradingview.com/symbols/QSE-QNNS/technicals/</t>
   </si>
   <si>
-    <t>BRES</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ABRES</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-BRES/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-BRES/technicals/</t>
-  </si>
-  <si>
-    <t>ABQK</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AABQK</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-ABQK/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-ABQK/technicals/</t>
-  </si>
-  <si>
-    <t>QATI</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQATI</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QATI/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QATI/technicals/</t>
+    <t>QOIS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQOIS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QOIS/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-QOIS/technicals/</t>
+  </si>
+  <si>
+    <t>SIIS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ASIIS</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-SIIS/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-SIIS/technicals/</t>
+  </si>
+  <si>
+    <t>UDCD</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AUDCD</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-UDCD/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-UDCD/technicals/</t>
   </si>
   <si>
     <t>VFQS</t>
@@ -296,67 +683,16 @@
     <t>https://www.tradingview.com/symbols/QSE-VFQS/technicals/</t>
   </si>
   <si>
-    <t>QAMC</t>
-  </si>
-  <si>
-    <t>NEUTRAL</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQAMC</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QAMC/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QAMC/technicals/</t>
-  </si>
-  <si>
-    <t>IGRD</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AIGRD</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-IGRD/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-IGRD/technicals/</t>
-  </si>
-  <si>
-    <t>AHCS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AAHCS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-AHCS/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-AHCS/technicals/</t>
-  </si>
-  <si>
-    <t>DHBK</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADHBK</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-DHBK/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-DHBK/technicals/</t>
-  </si>
-  <si>
-    <t>GISS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGISS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-GISS/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-GISS/technicals/</t>
+    <t>WDAM</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AWDAM</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-WDAM/financials-overview/</t>
+  </si>
+  <si>
+    <t>https://www.tradingview.com/symbols/QSE-WDAM/technicals/</t>
   </si>
   <si>
     <t>ZHCD</t>
@@ -369,342 +705,6 @@
   </si>
   <si>
     <t>https://www.tradingview.com/symbols/QSE-ZHCD/technicals/</t>
-  </si>
-  <si>
-    <t>UDCD</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AUDCD</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-UDCD/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-UDCD/technicals/</t>
-  </si>
-  <si>
-    <t>MERS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMERS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-MERS/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-MERS/technicals/</t>
-  </si>
-  <si>
-    <t>QNCD</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQNCD</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QNCD/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QNCD/technicals/</t>
-  </si>
-  <si>
-    <t>BLDN</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ABLDN</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-BLDN/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-BLDN/technicals/</t>
-  </si>
-  <si>
-    <t>QIGD</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIGD</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QIGD/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QIGD/technicals/</t>
-  </si>
-  <si>
-    <t>MEZA</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMEZA</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-MEZA/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-MEZA/technicals/</t>
-  </si>
-  <si>
-    <t>GWCS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGWCS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-GWCS/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-GWCS/technicals/</t>
-  </si>
-  <si>
-    <t>MCCS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMCCS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-MCCS/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-MCCS/technicals/</t>
-  </si>
-  <si>
-    <t>MCGS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMCGS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-MCGS/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-MCGS/technicals/</t>
-  </si>
-  <si>
-    <t>QFBQ</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQFBQ</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QFBQ/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QFBQ/technicals/</t>
-  </si>
-  <si>
-    <t>QIMD</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQIMD</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QIMD/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QIMD/technicals/</t>
-  </si>
-  <si>
-    <t>QISI</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQISI</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QISI/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QISI/technicals/</t>
-  </si>
-  <si>
-    <t>QGRI</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGRI</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QGRI/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QGRI/technicals/</t>
-  </si>
-  <si>
-    <t>QLMI</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQLMI</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QLMI/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QLMI/technicals/</t>
-  </si>
-  <si>
-    <t>SIIS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ASIIS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-SIIS/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-SIIS/technicals/</t>
-  </si>
-  <si>
-    <t>AKHI</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AAKHI</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-AKHI/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-AKHI/technicals/</t>
-  </si>
-  <si>
-    <t>MRDS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMRDS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-MRDS/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-MRDS/technicals/</t>
-  </si>
-  <si>
-    <t>MKDM</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMKDM</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-MKDM/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-MKDM/technicals/</t>
-  </si>
-  <si>
-    <t>WDAM</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AWDAM</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-WDAM/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-WDAM/technicals/</t>
-  </si>
-  <si>
-    <t>NLCS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ANLCS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-NLCS/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-NLCS/technicals/</t>
-  </si>
-  <si>
-    <t>MHAR</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AMHAR</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-MHAR/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-MHAR/technicals/</t>
-  </si>
-  <si>
-    <t>QOIS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQOIS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QOIS/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QOIS/technicals/</t>
-  </si>
-  <si>
-    <t>DBIS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3ADBIS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-DBIS/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-DBIS/technicals/</t>
-  </si>
-  <si>
-    <t>IHGS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AIHGS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-IHGS/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-IHGS/technicals/</t>
-  </si>
-  <si>
-    <t>FALH</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AFALH</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-FALH/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-FALH/technicals/</t>
-  </si>
-  <si>
-    <t>QCFS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQCFS</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QCFS/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QCFS/technicals/</t>
-  </si>
-  <si>
-    <t>QGMD</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AQGMD</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QGMD/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-QGMD/technicals/</t>
-  </si>
-  <si>
-    <t>GNRI</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/chart/ZMYE714n/?symbol=QSE%3AGNRI</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-GNRI/financials-overview/</t>
-  </si>
-  <si>
-    <t>https://www.tradingview.com/symbols/QSE-GNRI/technicals/</t>
   </si>
 </sst>
 </file>
@@ -1129,19 +1129,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1197,15 +1194,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>3.95</v>
@@ -1244,24 +1241,24 @@
         <v>4.8838333333333326</v>
       </c>
       <c r="P2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>0.80500000000000005</v>
@@ -1300,24 +1297,24 @@
         <v>1.12072222</v>
       </c>
       <c r="P3" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="Q3" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="R3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>2.6749999999999998</v>
@@ -1356,24 +1353,24 @@
         <v>4.4751666666666674</v>
       </c>
       <c r="P4" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="Q4" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="R4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>1.159</v>
@@ -1412,24 +1409,24 @@
         <v>1.806111113333333</v>
       </c>
       <c r="P5" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="Q5" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="R5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D6">
         <v>3.02</v>
@@ -1468,24 +1465,24 @@
         <v>3.4322777800000002</v>
       </c>
       <c r="P6" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="Q6" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="R6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>5.19</v>
@@ -1524,24 +1521,24 @@
         <v>7.118333333333335</v>
       </c>
       <c r="P7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>1.27</v>
@@ -1580,24 +1577,24 @@
         <v>2.4178333333333328</v>
       </c>
       <c r="P8" t="s">
-        <v>204</v>
+        <v>47</v>
       </c>
       <c r="Q8" t="s">
-        <v>205</v>
+        <v>48</v>
       </c>
       <c r="R8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>1.601</v>
@@ -1636,24 +1633,24 @@
         <v>2.366166666666667</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="Q9" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="R9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D10">
         <v>4.0199999999999996</v>
@@ -1692,24 +1689,24 @@
         <v>5.2101666666666668</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Q10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="R10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>0.84</v>
@@ -1748,24 +1745,24 @@
         <v>1.4392777800000001</v>
       </c>
       <c r="P11" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="Q11" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="R11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>0.79900000000000004</v>
@@ -1804,24 +1801,24 @@
         <v>1.506555553333333</v>
       </c>
       <c r="P12" t="s">
-        <v>212</v>
+        <v>63</v>
       </c>
       <c r="Q12" t="s">
-        <v>213</v>
+        <v>64</v>
       </c>
       <c r="R12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D13">
         <v>2.97</v>
@@ -1860,24 +1857,24 @@
         <v>3.8845000000000001</v>
       </c>
       <c r="P13" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="Q13" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="R13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B14" t="s">
-        <v>223</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D14">
         <v>10410.290000000001</v>
@@ -1913,24 +1910,24 @@
         <v>12413.219577780001</v>
       </c>
       <c r="P14" t="s">
-        <v>224</v>
+        <v>71</v>
       </c>
       <c r="Q14" t="s">
-        <v>225</v>
+        <v>72</v>
       </c>
       <c r="R14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D15">
         <v>3.14</v>
@@ -1969,24 +1966,24 @@
         <v>4.5739444466666663</v>
       </c>
       <c r="P15" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="Q15" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="R15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D16">
         <v>1.905</v>
@@ -2025,24 +2022,24 @@
         <v>2.8694999999999999</v>
       </c>
       <c r="P16" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="Q16" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="R16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B17" t="s">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D17">
         <v>4.0229999999999997</v>
@@ -2081,24 +2078,24 @@
         <v>7.7058333333333344</v>
       </c>
       <c r="P17" t="s">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="Q17" t="s">
-        <v>209</v>
+        <v>84</v>
       </c>
       <c r="R17" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D18">
         <v>12.77</v>
@@ -2137,24 +2134,24 @@
         <v>16.530555553333329</v>
       </c>
       <c r="P18" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="Q18" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="R18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <v>2.44</v>
@@ -2193,24 +2190,24 @@
         <v>4.0257222199999996</v>
       </c>
       <c r="P19" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="Q19" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D20">
         <v>4.3109999999999999</v>
@@ -2249,24 +2246,24 @@
         <v>10.368944446666671</v>
       </c>
       <c r="P20" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="Q20" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="R20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D21">
         <v>4.6180000000000003</v>
@@ -2305,24 +2302,24 @@
         <v>8.3277777799999999</v>
       </c>
       <c r="P21" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="Q21" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="R21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D22">
         <v>12.94</v>
@@ -2361,24 +2358,24 @@
         <v>17.684826578333329</v>
       </c>
       <c r="P22" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="Q22" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="R22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D23">
         <v>2.6240000000000001</v>
@@ -2415,24 +2412,24 @@
         <v>3.468</v>
       </c>
       <c r="P23" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="Q23" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="R23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B24" t="s">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D24">
         <v>1.591</v>
@@ -2471,24 +2468,24 @@
         <v>5.684944446666667</v>
       </c>
       <c r="P24" t="s">
-        <v>196</v>
+        <v>112</v>
       </c>
       <c r="Q24" t="s">
-        <v>197</v>
+        <v>113</v>
       </c>
       <c r="R24" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D25">
         <v>4.8659999999999997</v>
@@ -2527,24 +2524,24 @@
         <v>7.3139554049999989</v>
       </c>
       <c r="P25" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="Q25" t="s">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="R25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D26">
         <v>1.8029999999999999</v>
@@ -2583,24 +2580,24 @@
         <v>2.6302777800000001</v>
       </c>
       <c r="P26" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="Q26" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="R26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D27">
         <v>0.70899999999999996</v>
@@ -2639,24 +2636,24 @@
         <v>1.2044212000000001</v>
       </c>
       <c r="P27" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="Q27" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="R27" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B28" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D28">
         <v>0.73499999999999999</v>
@@ -2695,24 +2692,24 @@
         <v>1.0465</v>
       </c>
       <c r="P28" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="Q28" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="R28" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D29">
         <v>11</v>
@@ -2751,24 +2748,24 @@
         <v>13.593833333333331</v>
       </c>
       <c r="P29" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="Q29" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="R29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D30">
         <v>1.3340000000000001</v>
@@ -2807,24 +2804,24 @@
         <v>2.0466111133333329</v>
       </c>
       <c r="P30" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="Q30" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="R30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D31">
         <v>2.3879999999999999</v>
@@ -2863,24 +2860,24 @@
         <v>3.299444446666667</v>
       </c>
       <c r="P31" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="Q31" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="R31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B32" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D32">
         <v>2.91</v>
@@ -2919,24 +2916,24 @@
         <v>3.9586666666666668</v>
       </c>
       <c r="P32" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="Q32" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="R32" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D33">
         <v>17.73</v>
@@ -2975,24 +2972,24 @@
         <v>20.18055472166667</v>
       </c>
       <c r="P33" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="Q33" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="R33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B34" t="s">
         <v>151</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D34">
         <v>1.35</v>
@@ -3040,15 +3037,15 @@
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D35">
         <v>15.19</v>
@@ -3087,24 +3084,24 @@
         <v>20.320001611666669</v>
       </c>
       <c r="P35" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="Q35" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="R35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B36" t="s">
-        <v>219</v>
+        <v>159</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D36">
         <v>1.405</v>
@@ -3143,24 +3140,24 @@
         <v>3.3540000000000001</v>
       </c>
       <c r="P36" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="Q36" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="R36" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B37" t="s">
         <v>163</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D37">
         <v>1.087</v>
@@ -3208,15 +3205,15 @@
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D38">
         <v>4.3070000000000004</v>
@@ -3255,24 +3252,24 @@
         <v>4.7343888866666672</v>
       </c>
       <c r="P38" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="Q38" t="s">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="R38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D39">
         <v>19.850000000000001</v>
@@ -3311,24 +3308,24 @@
         <v>24.640000611666661</v>
       </c>
       <c r="P39" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="Q39" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="R39" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D40">
         <v>1.877</v>
@@ -3367,24 +3364,24 @@
         <v>2.2730555533333332</v>
       </c>
       <c r="P40" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="Q40" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="R40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D41">
         <v>11.14</v>
@@ -3423,24 +3420,24 @@
         <v>12.45388888666667</v>
       </c>
       <c r="P41" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="Q41" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="R41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B42" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D42">
         <v>2.7839999999999998</v>
@@ -3479,24 +3476,24 @@
         <v>3.8127777799999998</v>
       </c>
       <c r="P42" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="Q42" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="R42" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B43" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D43">
         <v>9.23</v>
@@ -3535,24 +3532,24 @@
         <v>9.7575000000000003</v>
       </c>
       <c r="P43" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="Q43" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="R43" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B44" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D44">
         <v>2.1850000000000001</v>
@@ -3591,24 +3588,24 @@
         <v>5.3198333333333334</v>
       </c>
       <c r="P44" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="Q44" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="R44" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D45">
         <v>3.77</v>
@@ -3647,24 +3644,24 @@
         <v>6.15472222</v>
       </c>
       <c r="P45" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="Q45" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="R45" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D46">
         <v>10.99</v>
@@ -3703,24 +3700,24 @@
         <v>12.211833333333329</v>
       </c>
       <c r="P46" t="s">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="Q46" t="s">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c r="R46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B47" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D47">
         <v>0.88100000000000001</v>
@@ -3759,24 +3756,24 @@
         <v>1.34727778</v>
       </c>
       <c r="P47" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q47" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="R47" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B48" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D48">
         <v>0.67300000000000004</v>
@@ -3815,24 +3812,24 @@
         <v>0.97305555333333338</v>
       </c>
       <c r="P48" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="Q48" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="R48" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D49">
         <v>1.022</v>
@@ -3871,24 +3868,24 @@
         <v>1.5273333333333341</v>
       </c>
       <c r="P49" t="s">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="Q49" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="R49" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>215</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D50">
         <v>1.714</v>
@@ -3927,24 +3924,24 @@
         <v>2.148111113333333</v>
       </c>
       <c r="P50" t="s">
-        <v>87</v>
+        <v>216</v>
       </c>
       <c r="Q50" t="s">
-        <v>88</v>
+        <v>217</v>
       </c>
       <c r="R50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B51" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D51">
         <v>2.0699999999999998</v>
@@ -3983,24 +3980,24 @@
         <v>3.9327777799999999</v>
       </c>
       <c r="P51" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="Q51" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="R51" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D52">
         <v>13.95</v>
@@ -4039,26 +4036,468 @@
         <v>16.684894745000001</v>
       </c>
       <c r="P52" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="Q52" t="s">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="R52" t="s">
-        <v>114</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>45381.108017859733</v>
+      </c>
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53">
+        <v>3.25</v>
+      </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <v>8</v>
+      </c>
+      <c r="G53">
+        <v>8</v>
+      </c>
+      <c r="H53">
+        <v>6863378</v>
+      </c>
+      <c r="I53">
+        <v>19.210067009999999</v>
+      </c>
+      <c r="J53" s="4">
+        <v>51.578832120000001</v>
+      </c>
+      <c r="K53">
+        <v>58.884313040000002</v>
+      </c>
+      <c r="L53" s="4">
+        <v>9.9511760000000005E-2</v>
+      </c>
+      <c r="M53">
+        <v>-3.7037037000000002</v>
+      </c>
+      <c r="N53">
+        <v>2.274944446666666</v>
+      </c>
+      <c r="O53">
+        <v>4.5739444466666663</v>
+      </c>
+      <c r="P53" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>76</v>
+      </c>
+      <c r="R53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>45381.108017859733</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54">
+        <v>3.3</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>9</v>
+      </c>
+      <c r="H54">
+        <v>6960473</v>
+      </c>
+      <c r="I54">
+        <v>41.671007000000003</v>
+      </c>
+      <c r="J54" s="4">
+        <v>72.610563249999998</v>
+      </c>
+      <c r="K54">
+        <v>72.780779039999999</v>
+      </c>
+      <c r="L54" s="4"/>
+      <c r="M54">
+        <v>-9.0826519999999994E-2</v>
+      </c>
+      <c r="N54">
+        <v>1.926166666666667</v>
+      </c>
+      <c r="O54">
+        <v>3.468</v>
+      </c>
+      <c r="P54" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>109</v>
+      </c>
+      <c r="R54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>45381.108017859733</v>
+      </c>
+      <c r="B55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+      <c r="F55">
+        <v>9</v>
+      </c>
+      <c r="G55">
+        <v>11</v>
+      </c>
+      <c r="H55">
+        <v>32868068</v>
+      </c>
+      <c r="I55">
+        <v>24.641095490000001</v>
+      </c>
+      <c r="J55" s="4">
+        <v>61.3793419</v>
+      </c>
+      <c r="K55">
+        <v>59.995765380000002</v>
+      </c>
+      <c r="L55" s="4">
+        <v>0.13493235000000001</v>
+      </c>
+      <c r="M55">
+        <v>1.34366925</v>
+      </c>
+      <c r="N55">
+        <v>1.154444446666667</v>
+      </c>
+      <c r="O55">
+        <v>2.6302777800000001</v>
+      </c>
+      <c r="P55" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>121</v>
+      </c>
+      <c r="R55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>45381.108017859733</v>
+      </c>
+      <c r="B56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56">
+        <v>2.91</v>
+      </c>
+      <c r="E56">
+        <v>15</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>10358</v>
+      </c>
+      <c r="I56">
+        <v>17.303175400000001</v>
+      </c>
+      <c r="J56" s="4">
+        <v>40.688227939999997</v>
+      </c>
+      <c r="K56">
+        <v>55.133457659999998</v>
+      </c>
+      <c r="L56" s="4">
+        <v>-5.7376469999999999E-2</v>
+      </c>
+      <c r="M56">
+        <v>-6.0381013899999996</v>
+      </c>
+      <c r="N56">
+        <v>2.2756666666666669</v>
+      </c>
+      <c r="O56">
+        <v>3.9586666666666668</v>
+      </c>
+      <c r="P56" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>145</v>
+      </c>
+      <c r="R56" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>45381.108017859733</v>
+      </c>
+      <c r="B57" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57">
+        <v>3.9830000000000001</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57">
+        <v>14</v>
+      </c>
+      <c r="H57">
+        <v>12292864</v>
+      </c>
+      <c r="I57">
+        <v>26.37951279</v>
+      </c>
+      <c r="J57" s="4">
+        <v>58.211339119999998</v>
+      </c>
+      <c r="K57">
+        <v>62.9188671</v>
+      </c>
+      <c r="L57" s="4">
+        <v>0.45709706</v>
+      </c>
+      <c r="M57">
+        <v>-2.8773469899999999</v>
+      </c>
+      <c r="N57">
+        <v>2.4628888866666672</v>
+      </c>
+      <c r="O57">
+        <v>4.7343888866666672</v>
+      </c>
+      <c r="P57" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>169</v>
+      </c>
+      <c r="R57" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>45381.108017859733</v>
+      </c>
+      <c r="B58" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58">
+        <v>10.93</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>12</v>
+      </c>
+      <c r="H58">
+        <v>8054881</v>
+      </c>
+      <c r="I58">
+        <v>22.75117869</v>
+      </c>
+      <c r="J58" s="4">
+        <v>57.233497059999998</v>
+      </c>
+      <c r="K58">
+        <v>62.729341230000003</v>
+      </c>
+      <c r="L58" s="4">
+        <v>0.87811762999999998</v>
+      </c>
+      <c r="M58">
+        <v>-1.97309417</v>
+      </c>
+      <c r="N58">
+        <v>7.8888888866666669</v>
+      </c>
+      <c r="O58">
+        <v>12.45388888666667</v>
+      </c>
+      <c r="P58" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>181</v>
+      </c>
+      <c r="R58" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>45381.108017859733</v>
+      </c>
+      <c r="B59" t="s">
+        <v>199</v>
+      </c>
+      <c r="C59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59">
+        <v>10.53</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59">
+        <v>12</v>
+      </c>
+      <c r="H59">
+        <v>4668218</v>
+      </c>
+      <c r="I59">
+        <v>27.883570509999998</v>
+      </c>
+      <c r="J59" s="4">
+        <v>52.890443599999998</v>
+      </c>
+      <c r="K59">
+        <v>61.761037969999997</v>
+      </c>
+      <c r="L59" s="4">
+        <v>0.86297056999999999</v>
+      </c>
+      <c r="M59">
+        <v>-5.9821428599999997</v>
+      </c>
+      <c r="N59">
+        <v>6.8951666666666664</v>
+      </c>
+      <c r="O59">
+        <v>12.211833333333329</v>
+      </c>
+      <c r="P59" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>201</v>
+      </c>
+      <c r="R59" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>45381.108017859733</v>
+      </c>
+      <c r="B60" t="s">
+        <v>223</v>
+      </c>
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60">
+        <v>13.66</v>
+      </c>
+      <c r="E60">
+        <v>16</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <v>352372</v>
+      </c>
+      <c r="I60">
+        <v>25.161618430000001</v>
+      </c>
+      <c r="J60" s="4">
+        <v>47.635364150000001</v>
+      </c>
+      <c r="K60">
+        <v>67.052048549999995</v>
+      </c>
+      <c r="L60" s="4">
+        <v>0.376</v>
+      </c>
+      <c r="M60">
+        <v>-7.8894133499999999</v>
+      </c>
+      <c r="N60">
+        <v>11.446799244999999</v>
+      </c>
+      <c r="O60">
+        <v>16.684894745000001</v>
+      </c>
+      <c r="P60" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>225</v>
+      </c>
+      <c r="R60" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R53">
-    <sortCondition ref="B2:B53"/>
-    <sortCondition ref="A2:A53"/>
-  </sortState>
-  <conditionalFormatting sqref="A1:R998">
+  <conditionalFormatting sqref="A1:R1000">
     <cfRule type="expression" dxfId="5" priority="1">
       <formula>$L1&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E998">
+  <conditionalFormatting sqref="E1:E1000">
     <cfRule type="expression" dxfId="4" priority="2">
       <formula>$E1&gt;7</formula>
     </cfRule>
@@ -4069,20 +4508,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="57.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="57" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4138,15 +4589,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>4.3070000000000004</v>
@@ -4185,24 +4636,24 @@
         <v>4.7343888866666672</v>
       </c>
       <c r="P2" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="Q2" t="s">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="R2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>10.99</v>
@@ -4241,24 +4692,24 @@
         <v>12.211833333333329</v>
       </c>
       <c r="P3" t="s">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="Q3" t="s">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c r="R3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>10410.290000000001</v>
@@ -4294,17 +4745,297 @@
         <v>12413.219577780001</v>
       </c>
       <c r="P4" t="s">
-        <v>224</v>
+        <v>71</v>
       </c>
       <c r="Q4" t="s">
-        <v>225</v>
+        <v>72</v>
       </c>
       <c r="R4" t="s">
-        <v>226</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>45381.108017859733</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5">
+        <v>3.25</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>6863378</v>
+      </c>
+      <c r="I5">
+        <v>19.210067009999999</v>
+      </c>
+      <c r="J5" s="4">
+        <v>51.578832120000001</v>
+      </c>
+      <c r="K5">
+        <v>58.884313040000002</v>
+      </c>
+      <c r="L5" s="4">
+        <v>9.9511760000000005E-2</v>
+      </c>
+      <c r="M5">
+        <v>-3.7037037000000002</v>
+      </c>
+      <c r="N5">
+        <v>2.274944446666666</v>
+      </c>
+      <c r="O5">
+        <v>4.5739444466666663</v>
+      </c>
+      <c r="P5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>45381.108017859733</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>32868068</v>
+      </c>
+      <c r="I6">
+        <v>24.641095490000001</v>
+      </c>
+      <c r="J6" s="4">
+        <v>61.3793419</v>
+      </c>
+      <c r="K6">
+        <v>59.995765380000002</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.13493235000000001</v>
+      </c>
+      <c r="M6">
+        <v>1.34366925</v>
+      </c>
+      <c r="N6">
+        <v>1.154444446666667</v>
+      </c>
+      <c r="O6">
+        <v>2.6302777800000001</v>
+      </c>
+      <c r="P6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>121</v>
+      </c>
+      <c r="R6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>45381.108017859733</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>3.9830000000000001</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>12292864</v>
+      </c>
+      <c r="I7">
+        <v>26.37951279</v>
+      </c>
+      <c r="J7" s="4">
+        <v>58.211339119999998</v>
+      </c>
+      <c r="K7">
+        <v>62.9188671</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.45709706</v>
+      </c>
+      <c r="M7">
+        <v>-2.8773469899999999</v>
+      </c>
+      <c r="N7">
+        <v>2.4628888866666672</v>
+      </c>
+      <c r="O7">
+        <v>4.7343888866666672</v>
+      </c>
+      <c r="P7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>169</v>
+      </c>
+      <c r="R7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>45381.108017859733</v>
+      </c>
+      <c r="B8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>10.93</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>8054881</v>
+      </c>
+      <c r="I8">
+        <v>22.75117869</v>
+      </c>
+      <c r="J8" s="4">
+        <v>57.233497059999998</v>
+      </c>
+      <c r="K8">
+        <v>62.729341230000003</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.87811762999999998</v>
+      </c>
+      <c r="M8">
+        <v>-1.97309417</v>
+      </c>
+      <c r="N8">
+        <v>7.8888888866666669</v>
+      </c>
+      <c r="O8">
+        <v>12.45388888666667</v>
+      </c>
+      <c r="P8" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>181</v>
+      </c>
+      <c r="R8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>45381.108017859733</v>
+      </c>
+      <c r="B9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>10.53</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>4668218</v>
+      </c>
+      <c r="I9">
+        <v>27.883570509999998</v>
+      </c>
+      <c r="J9" s="4">
+        <v>52.890443599999998</v>
+      </c>
+      <c r="K9">
+        <v>61.761037969999997</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.86297056999999999</v>
+      </c>
+      <c r="M9">
+        <v>-5.9821428599999997</v>
+      </c>
+      <c r="N9">
+        <v>6.8951666666666664</v>
+      </c>
+      <c r="O9">
+        <v>12.211833333333329</v>
+      </c>
+      <c r="P9" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>201</v>
+      </c>
+      <c r="R9" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:R999">
+  <conditionalFormatting sqref="A1:R1000">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>$L1&gt;0</formula>
     </cfRule>
@@ -4315,18 +5046,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:M6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4382,15 +5111,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D2">
         <v>19.850000000000001</v>
@@ -4429,24 +5158,24 @@
         <v>24.640000611666661</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -4485,24 +5214,24 @@
         <v>13.593833333333331</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="R3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>11.14</v>
@@ -4541,24 +5270,24 @@
         <v>12.45388888666667</v>
       </c>
       <c r="P4" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="Q4" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="R4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>3.02</v>
@@ -4597,24 +5326,24 @@
         <v>3.4322777800000002</v>
       </c>
       <c r="P5" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="Q5" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="R5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D6">
         <v>2.97</v>
@@ -4653,24 +5382,24 @@
         <v>3.8845000000000001</v>
       </c>
       <c r="P6" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="Q6" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="R6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>1.877</v>
@@ -4709,24 +5438,24 @@
         <v>2.2730555533333332</v>
       </c>
       <c r="P7" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="Q7" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="R7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D8">
         <v>9.23</v>
@@ -4765,13 +5494,237 @@
         <v>9.7575000000000003</v>
       </c>
       <c r="P8" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="Q8" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="R8" t="s">
-        <v>162</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>45381.108017859733</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>32868068</v>
+      </c>
+      <c r="I9">
+        <v>24.641095490000001</v>
+      </c>
+      <c r="J9" s="4">
+        <v>61.3793419</v>
+      </c>
+      <c r="K9">
+        <v>59.995765380000002</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.13493235000000001</v>
+      </c>
+      <c r="M9">
+        <v>1.34366925</v>
+      </c>
+      <c r="N9">
+        <v>1.154444446666667</v>
+      </c>
+      <c r="O9">
+        <v>2.6302777800000001</v>
+      </c>
+      <c r="P9" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>121</v>
+      </c>
+      <c r="R9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>45381.108017859733</v>
+      </c>
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>3.9830000000000001</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>12292864</v>
+      </c>
+      <c r="I10">
+        <v>26.37951279</v>
+      </c>
+      <c r="J10" s="4">
+        <v>58.211339119999998</v>
+      </c>
+      <c r="K10">
+        <v>62.9188671</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.45709706</v>
+      </c>
+      <c r="M10">
+        <v>-2.8773469899999999</v>
+      </c>
+      <c r="N10">
+        <v>2.4628888866666672</v>
+      </c>
+      <c r="O10">
+        <v>4.7343888866666672</v>
+      </c>
+      <c r="P10" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>169</v>
+      </c>
+      <c r="R10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>45381.108017859733</v>
+      </c>
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>10.93</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <v>8054881</v>
+      </c>
+      <c r="I11">
+        <v>22.75117869</v>
+      </c>
+      <c r="J11" s="4">
+        <v>57.233497059999998</v>
+      </c>
+      <c r="K11">
+        <v>62.729341230000003</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0.87811762999999998</v>
+      </c>
+      <c r="M11">
+        <v>-1.97309417</v>
+      </c>
+      <c r="N11">
+        <v>7.8888888866666669</v>
+      </c>
+      <c r="O11">
+        <v>12.45388888666667</v>
+      </c>
+      <c r="P11" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>181</v>
+      </c>
+      <c r="R11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>45381.108017859733</v>
+      </c>
+      <c r="B12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>10.53</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>4668218</v>
+      </c>
+      <c r="I12">
+        <v>27.883570509999998</v>
+      </c>
+      <c r="J12" s="4">
+        <v>52.890443599999998</v>
+      </c>
+      <c r="K12">
+        <v>61.761037969999997</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.86297056999999999</v>
+      </c>
+      <c r="M12">
+        <v>-5.9821428599999997</v>
+      </c>
+      <c r="N12">
+        <v>6.8951666666666664</v>
+      </c>
+      <c r="O12">
+        <v>12.211833333333329</v>
+      </c>
+      <c r="P12" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>201</v>
+      </c>
+      <c r="R12" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4790,12 +5743,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4851,15 +5804,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>0.84</v>
@@ -4898,24 +5851,24 @@
         <v>1.4392777800000001</v>
       </c>
       <c r="P2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="Q2" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="R2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>5.19</v>
@@ -4954,24 +5907,24 @@
         <v>7.118333333333335</v>
       </c>
       <c r="P3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>215</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>1.714</v>
@@ -5010,24 +5963,24 @@
         <v>2.148111113333333</v>
       </c>
       <c r="P4" t="s">
-        <v>87</v>
+        <v>216</v>
       </c>
       <c r="Q4" t="s">
-        <v>88</v>
+        <v>217</v>
       </c>
       <c r="R4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>1.905</v>
@@ -5066,24 +6019,24 @@
         <v>2.8694999999999999</v>
       </c>
       <c r="P5" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="Q5" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="R5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>0.80500000000000005</v>
@@ -5122,24 +6075,24 @@
         <v>1.12072222</v>
       </c>
       <c r="P6" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="R6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>1.022</v>
@@ -5178,24 +6131,24 @@
         <v>1.5273333333333341</v>
       </c>
       <c r="P7" t="s">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="Q7" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="R7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>12.94</v>
@@ -5234,24 +6187,24 @@
         <v>17.684826578333329</v>
       </c>
       <c r="P8" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="Q8" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="R8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>1.159</v>
@@ -5290,24 +6243,24 @@
         <v>1.806111113333333</v>
       </c>
       <c r="P9" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="Q9" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="R9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>3.14</v>
@@ -5346,24 +6299,24 @@
         <v>4.5739444466666663</v>
       </c>
       <c r="P10" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="Q10" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="R10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>4.6180000000000003</v>
@@ -5402,24 +6355,24 @@
         <v>8.3277777799999999</v>
       </c>
       <c r="P11" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="Q11" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="R11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>2.7839999999999998</v>
@@ -5458,24 +6411,24 @@
         <v>3.8127777799999998</v>
       </c>
       <c r="P12" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="Q12" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="R12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B13" t="s">
         <v>163</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D13">
         <v>1.087</v>
@@ -5523,15 +6476,15 @@
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B14" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D14">
         <v>2.1850000000000001</v>
@@ -5570,24 +6523,24 @@
         <v>5.3198333333333334</v>
       </c>
       <c r="P14" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="Q14" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="R14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B15" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D15">
         <v>0.67300000000000004</v>
@@ -5626,24 +6579,24 @@
         <v>0.97305555333333338</v>
       </c>
       <c r="P15" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="Q15" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="R15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D16">
         <v>0.70899999999999996</v>
@@ -5682,24 +6635,24 @@
         <v>1.2044212000000001</v>
       </c>
       <c r="P16" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="Q16" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="R16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D17">
         <v>4.8659999999999997</v>
@@ -5738,24 +6691,24 @@
         <v>7.3139554049999989</v>
       </c>
       <c r="P17" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="Q17" t="s">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="R17" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D18">
         <v>2.0699999999999998</v>
@@ -5794,24 +6747,24 @@
         <v>3.9327777799999999</v>
       </c>
       <c r="P18" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="Q18" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="R18" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <v>0.73499999999999999</v>
@@ -5850,24 +6803,24 @@
         <v>1.0465</v>
       </c>
       <c r="P19" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="Q19" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="R19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B20" t="s">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D20">
         <v>4.0229999999999997</v>
@@ -5906,24 +6859,24 @@
         <v>7.7058333333333344</v>
       </c>
       <c r="P20" t="s">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="Q20" t="s">
-        <v>209</v>
+        <v>84</v>
       </c>
       <c r="R20" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B21" t="s">
-        <v>211</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D21">
         <v>0.79900000000000004</v>
@@ -5962,24 +6915,24 @@
         <v>1.506555553333333</v>
       </c>
       <c r="P21" t="s">
-        <v>212</v>
+        <v>63</v>
       </c>
       <c r="Q21" t="s">
-        <v>213</v>
+        <v>64</v>
       </c>
       <c r="R21" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B22" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D22">
         <v>2.91</v>
@@ -6018,24 +6971,24 @@
         <v>3.9586666666666668</v>
       </c>
       <c r="P22" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="Q22" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="R22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B23" t="s">
-        <v>219</v>
+        <v>159</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D23">
         <v>1.405</v>
@@ -6074,13 +7027,13 @@
         <v>3.3540000000000001</v>
       </c>
       <c r="P23" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="Q23" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="R23" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -6095,19 +7048,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6163,15 +7113,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D2">
         <v>19.850000000000001</v>
@@ -6210,24 +7160,24 @@
         <v>24.640000611666661</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="R2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -6266,24 +7216,24 @@
         <v>13.593833333333331</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>133</v>
       </c>
       <c r="R3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>2.44</v>
@@ -6322,24 +7272,24 @@
         <v>4.0257222199999996</v>
       </c>
       <c r="P4" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="Q4" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="R4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>4.3070000000000004</v>
@@ -6378,24 +7328,24 @@
         <v>4.7343888866666672</v>
       </c>
       <c r="P5" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="Q5" t="s">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="R5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D6">
         <v>11.14</v>
@@ -6434,24 +7384,24 @@
         <v>12.45388888666667</v>
       </c>
       <c r="P6" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="Q6" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="R6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>10.99</v>
@@ -6490,24 +7440,24 @@
         <v>12.211833333333329</v>
       </c>
       <c r="P7" t="s">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="Q7" t="s">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c r="R7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D8">
         <v>3.02</v>
@@ -6546,24 +7496,24 @@
         <v>3.4322777800000002</v>
       </c>
       <c r="P8" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="Q8" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="R8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>2.97</v>
@@ -6602,24 +7552,24 @@
         <v>3.8845000000000001</v>
       </c>
       <c r="P9" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="Q9" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="R9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>3.77</v>
@@ -6658,24 +7608,24 @@
         <v>6.15472222</v>
       </c>
       <c r="P10" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="Q10" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="R10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D11">
         <v>1.877</v>
@@ -6714,24 +7664,24 @@
         <v>2.2730555533333332</v>
       </c>
       <c r="P11" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="Q11" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="R11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>45348.035140018612</v>
+        <v>45348.035140023138</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D12">
         <v>9.23</v>
@@ -6770,17 +7720,353 @@
         <v>9.7575000000000003</v>
       </c>
       <c r="P12" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="Q12" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="R12" t="s">
-        <v>162</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>45381.108017859733</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13">
+        <v>3.25</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>6863378</v>
+      </c>
+      <c r="I13">
+        <v>19.210067009999999</v>
+      </c>
+      <c r="J13" s="4">
+        <v>51.578832120000001</v>
+      </c>
+      <c r="K13">
+        <v>58.884313040000002</v>
+      </c>
+      <c r="L13" s="4">
+        <v>9.9511760000000005E-2</v>
+      </c>
+      <c r="M13">
+        <v>-3.7037037000000002</v>
+      </c>
+      <c r="N13">
+        <v>2.274944446666666</v>
+      </c>
+      <c r="O13">
+        <v>4.5739444466666663</v>
+      </c>
+      <c r="P13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>76</v>
+      </c>
+      <c r="R13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>45381.108017859733</v>
+      </c>
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>32868068</v>
+      </c>
+      <c r="I14">
+        <v>24.641095490000001</v>
+      </c>
+      <c r="J14" s="4">
+        <v>61.3793419</v>
+      </c>
+      <c r="K14">
+        <v>59.995765380000002</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0.13493235000000001</v>
+      </c>
+      <c r="M14">
+        <v>1.34366925</v>
+      </c>
+      <c r="N14">
+        <v>1.154444446666667</v>
+      </c>
+      <c r="O14">
+        <v>2.6302777800000001</v>
+      </c>
+      <c r="P14" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>121</v>
+      </c>
+      <c r="R14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>45381.108017859733</v>
+      </c>
+      <c r="B15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>3.9830000000000001</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>12292864</v>
+      </c>
+      <c r="I15">
+        <v>26.37951279</v>
+      </c>
+      <c r="J15" s="4">
+        <v>58.211339119999998</v>
+      </c>
+      <c r="K15">
+        <v>62.9188671</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.45709706</v>
+      </c>
+      <c r="M15">
+        <v>-2.8773469899999999</v>
+      </c>
+      <c r="N15">
+        <v>2.4628888866666672</v>
+      </c>
+      <c r="O15">
+        <v>4.7343888866666672</v>
+      </c>
+      <c r="P15" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>169</v>
+      </c>
+      <c r="R15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>45381.108017859733</v>
+      </c>
+      <c r="B16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>10.93</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <v>8054881</v>
+      </c>
+      <c r="I16">
+        <v>22.75117869</v>
+      </c>
+      <c r="J16" s="4">
+        <v>57.233497059999998</v>
+      </c>
+      <c r="K16">
+        <v>62.729341230000003</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0.87811762999999998</v>
+      </c>
+      <c r="M16">
+        <v>-1.97309417</v>
+      </c>
+      <c r="N16">
+        <v>7.8888888866666669</v>
+      </c>
+      <c r="O16">
+        <v>12.45388888666667</v>
+      </c>
+      <c r="P16" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>181</v>
+      </c>
+      <c r="R16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>45381.108017859733</v>
+      </c>
+      <c r="B17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <v>10.53</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <v>4668218</v>
+      </c>
+      <c r="I17">
+        <v>27.883570509999998</v>
+      </c>
+      <c r="J17" s="4">
+        <v>52.890443599999998</v>
+      </c>
+      <c r="K17">
+        <v>61.761037969999997</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.86297056999999999</v>
+      </c>
+      <c r="M17">
+        <v>-5.9821428599999997</v>
+      </c>
+      <c r="N17">
+        <v>6.8951666666666664</v>
+      </c>
+      <c r="O17">
+        <v>12.211833333333329</v>
+      </c>
+      <c r="P17" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>201</v>
+      </c>
+      <c r="R17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>45381.108017859733</v>
+      </c>
+      <c r="B18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>13.66</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>352372</v>
+      </c>
+      <c r="I18">
+        <v>25.161618430000001</v>
+      </c>
+      <c r="J18" s="4">
+        <v>47.635364150000001</v>
+      </c>
+      <c r="K18">
+        <v>67.052048549999995</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0.376</v>
+      </c>
+      <c r="M18">
+        <v>-7.8894133499999999</v>
+      </c>
+      <c r="N18">
+        <v>11.446799244999999</v>
+      </c>
+      <c r="O18">
+        <v>16.684894745000001</v>
+      </c>
+      <c r="P18" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>225</v>
+      </c>
+      <c r="R18" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:R997">
+  <conditionalFormatting sqref="A1:R1000">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$L1&gt;0</formula>
     </cfRule>

--- a/W-Advance_Technical_Analysis_QSE_STRONG_BUY.xlsx
+++ b/W-Advance_Technical_Analysis_QSE_STRONG_BUY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhammadhafeez/Documents/GitHub/Python_PSX_Stock_Scanner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB87EAB-E22B-F140-8885-EDEB9FA78C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62EA08D-4519-4142-B742-88F6D8643B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -726,11 +726,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4047,7 +4049,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>45381.108017859733</v>
+        <v>45381.473049682667</v>
       </c>
       <c r="B53" t="s">
         <v>74</v>
@@ -4103,7 +4105,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>45381.108017859733</v>
+        <v>45381.473049682667</v>
       </c>
       <c r="B54" t="s">
         <v>107</v>
@@ -4157,7 +4159,7 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>45381.108017859733</v>
+        <v>45381.473049682667</v>
       </c>
       <c r="B55" t="s">
         <v>119</v>
@@ -4213,7 +4215,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>45381.108017859733</v>
+        <v>45381.473049682667</v>
       </c>
       <c r="B56" t="s">
         <v>143</v>
@@ -4269,7 +4271,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>45381.108017859733</v>
+        <v>45381.473049682667</v>
       </c>
       <c r="B57" t="s">
         <v>167</v>
@@ -4325,7 +4327,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>45381.108017859733</v>
+        <v>45381.473049682667</v>
       </c>
       <c r="B58" t="s">
         <v>179</v>
@@ -4381,7 +4383,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>45381.108017859733</v>
+        <v>45381.473049682667</v>
       </c>
       <c r="B59" t="s">
         <v>199</v>
@@ -4437,7 +4439,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>45381.108017859733</v>
+        <v>45381.473049682667</v>
       </c>
       <c r="B60" t="s">
         <v>223</v>
@@ -4511,25 +4513,12 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="A5" sqref="A5:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="57.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="57" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="18" max="18" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4756,7 +4745,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>45381.108017859733</v>
+        <v>45381.473049682667</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -4812,7 +4801,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>45381.108017859733</v>
+        <v>45381.473049682667</v>
       </c>
       <c r="B6" t="s">
         <v>119</v>
@@ -4868,7 +4857,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>45381.108017859733</v>
+        <v>45381.473049682667</v>
       </c>
       <c r="B7" t="s">
         <v>167</v>
@@ -4924,7 +4913,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>45381.108017859733</v>
+        <v>45381.473049682667</v>
       </c>
       <c r="B8" t="s">
         <v>179</v>
@@ -4980,7 +4969,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>45381.108017859733</v>
+        <v>45381.473049682667</v>
       </c>
       <c r="B9" t="s">
         <v>199</v>
@@ -5505,7 +5494,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>45381.108017859733</v>
+        <v>45381.473049682667</v>
       </c>
       <c r="B9" t="s">
         <v>119</v>
@@ -5561,7 +5550,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>45381.108017859733</v>
+        <v>45381.473049682667</v>
       </c>
       <c r="B10" t="s">
         <v>167</v>
@@ -5617,7 +5606,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>45381.108017859733</v>
+        <v>45381.473049682667</v>
       </c>
       <c r="B11" t="s">
         <v>179</v>
@@ -5673,7 +5662,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>45381.108017859733</v>
+        <v>45381.473049682667</v>
       </c>
       <c r="B12" t="s">
         <v>199</v>
@@ -7731,7 +7720,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>45381.108017859733</v>
+        <v>45381.473049682667</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -7787,7 +7776,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>45381.108017859733</v>
+        <v>45381.473049682667</v>
       </c>
       <c r="B14" t="s">
         <v>119</v>
@@ -7843,7 +7832,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>45381.108017859733</v>
+        <v>45381.473049682667</v>
       </c>
       <c r="B15" t="s">
         <v>167</v>
@@ -7899,7 +7888,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>45381.108017859733</v>
+        <v>45381.473049682667</v>
       </c>
       <c r="B16" t="s">
         <v>179</v>
@@ -7955,7 +7944,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>45381.108017859733</v>
+        <v>45381.473049682667</v>
       </c>
       <c r="B17" t="s">
         <v>199</v>
@@ -8011,7 +8000,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>45381.108017859733</v>
+        <v>45381.473049682667</v>
       </c>
       <c r="B18" t="s">
         <v>223</v>
